--- a/src/excel/AntigenSupportingData- Rotavirus-508.xlsx
+++ b/src/excel/AntigenSupportingData- Rotavirus-508.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.59 - 508\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.63 - 508 - DRAFT\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A2D916-12A6-42AA-9C7D-CFB2A81A4F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA092C5F-4D99-447B-A9DD-E535EDE2148F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -295,12 +295,6 @@
   </si>
   <si>
     <t>Active</t>
-  </si>
-  <si>
-    <t>≥6 wk-4 d</t>
-  </si>
-  <si>
-    <t>≥6 wk to &lt;8 mo+1 d</t>
   </si>
   <si>
     <t>Absolute Minimum Age: Dose 1: Monovalent 2-dose Late Start Series</t>
@@ -783,6 +777,12 @@
   </si>
   <si>
     <t>Publication Date: 11/08/2024</t>
+  </si>
+  <si>
+    <t>≥6 wks to &lt;8 mos + 1 day</t>
+  </si>
+  <si>
+    <t>≥6 wks - 4 days</t>
   </si>
 </sst>
 </file>
@@ -2680,7 +2680,7 @@
         <v>82</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C1" s="60"/>
       <c r="D1" s="60"/>
@@ -2706,7 +2706,7 @@
         <v>82</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C3" s="107"/>
       <c r="D3" s="107"/>
@@ -2732,7 +2732,7 @@
         <v>82</v>
       </c>
       <c r="B5" s="107" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C5" s="107"/>
       <c r="D5" s="107"/>
@@ -2756,7 +2756,7 @@
         <v>82</v>
       </c>
       <c r="B7" s="107" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C7" s="107"/>
       <c r="D7" s="107"/>
@@ -2782,7 +2782,7 @@
         <v>82</v>
       </c>
       <c r="B9" s="107" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C9" s="107"/>
       <c r="D9" s="107"/>
@@ -2808,7 +2808,7 @@
         <v>82</v>
       </c>
       <c r="B11" s="107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
@@ -2834,7 +2834,7 @@
         <v>82</v>
       </c>
       <c r="B13" s="107" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C13" s="107"/>
       <c r="D13" s="107"/>
@@ -2848,7 +2848,7 @@
         <v>82</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C14" s="107"/>
       <c r="D14" s="107"/>
@@ -2862,7 +2862,7 @@
         <v>82</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C15" s="61"/>
       <c r="D15" s="61"/>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C18" s="180"/>
       <c r="D18" s="180"/>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C19" s="180"/>
       <c r="D19" s="180"/>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C20" s="180"/>
       <c r="D20" s="180"/>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C21" s="180"/>
       <c r="D21" s="180"/>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C22" s="180"/>
       <c r="D22" s="180"/>
@@ -3001,10 +3001,10 @@
         <v>9</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>90</v>
+        <v>235</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>89</v>
+        <v>236</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>84</v>
@@ -3026,10 +3026,10 @@
         <v>11</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>89</v>
+        <v>236</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="31"/>
@@ -3047,10 +3047,10 @@
         <v>12</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>89</v>
+        <v>236</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="31"/>
@@ -3068,10 +3068,10 @@
         <v>13</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>90</v>
+        <v>235</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>89</v>
+        <v>236</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>85</v>
@@ -3107,10 +3107,10 @@
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="59" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B31" s="53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C31" s="54"/>
       <c r="D31" s="54"/>
@@ -3122,10 +3122,10 @@
     </row>
     <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C32" s="57"/>
       <c r="D32" s="57"/>
@@ -3147,10 +3147,10 @@
     </row>
     <row r="34" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B34" s="53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C34" s="54"/>
       <c r="D34" s="54"/>
@@ -3162,10 +3162,10 @@
     </row>
     <row r="35" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B35" s="56" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C35" s="57"/>
       <c r="D35" s="57"/>
@@ -3187,10 +3187,10 @@
     </row>
     <row r="37" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="59" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B37" s="53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C37" s="54"/>
       <c r="D37" s="54"/>
@@ -3202,10 +3202,10 @@
     </row>
     <row r="38" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B38" s="56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C38" s="57"/>
       <c r="D38" s="57"/>
@@ -3227,10 +3227,10 @@
     </row>
     <row r="40" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C40" s="54"/>
       <c r="D40" s="54"/>
@@ -3242,10 +3242,10 @@
     </row>
     <row r="41" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B41" s="61" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C41" s="57"/>
       <c r="D41" s="57"/>
@@ -3286,7 +3286,7 @@
         <v>4.59</v>
       </c>
       <c r="C1" s="188" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3317,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D3" s="82" t="s">
         <v>10</v>
@@ -3326,7 +3326,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="84" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -3365,16 +3365,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D7" s="80" t="s">
         <v>77</v>
       </c>
       <c r="E7" s="84" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F7" s="84" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3385,16 +3385,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D8" s="80" t="s">
         <v>77</v>
       </c>
       <c r="E8" s="84" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F8" s="84" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -3433,16 +3433,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="82" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D12" s="171" t="s">
         <v>77</v>
       </c>
       <c r="E12" s="171" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F12" s="84" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -3481,16 +3481,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="91" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D16" s="80" t="s">
         <v>77</v>
       </c>
       <c r="E16" s="84" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F16" s="84" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="90" x14ac:dyDescent="0.25">
@@ -3501,16 +3501,16 @@
         <v>2</v>
       </c>
       <c r="C17" s="174" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="175" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" s="176" t="s">
         <v>189</v>
       </c>
-      <c r="D17" s="175" t="s">
+      <c r="F17" s="84" t="s">
         <v>190</v>
-      </c>
-      <c r="E17" s="176" t="s">
-        <v>191</v>
-      </c>
-      <c r="F17" s="84" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.3">
@@ -3521,16 +3521,16 @@
         <v>3</v>
       </c>
       <c r="C18" s="82" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D18" s="158" t="s">
         <v>77</v>
       </c>
       <c r="E18" s="84" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F18" s="84" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G18" s="159"/>
       <c r="H18" s="159"/>
@@ -3553,16 +3553,16 @@
         <v>4</v>
       </c>
       <c r="C19" s="82" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D19" s="171" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E19" s="171" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F19" s="84" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G19" s="159"/>
       <c r="H19" s="159"/>
@@ -3617,16 +3617,16 @@
         <v>1</v>
       </c>
       <c r="C23" s="84" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D23" s="149" t="s">
         <v>77</v>
       </c>
       <c r="E23" s="84" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F23" s="84" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -3637,16 +3637,16 @@
         <v>2</v>
       </c>
       <c r="C24" s="84" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D24" s="149" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E24" s="84" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F24" s="84" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -3693,16 +3693,16 @@
         <v>1</v>
       </c>
       <c r="C28" s="81" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D28" s="80" t="s">
         <v>77</v>
       </c>
       <c r="E28" s="81" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F28" s="81" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -3711,16 +3711,16 @@
         <v>2</v>
       </c>
       <c r="C29" s="82" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D29" s="80" t="s">
         <v>77</v>
       </c>
       <c r="E29" s="84" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F29" s="84" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -3785,7 +3785,7 @@
         <v>77</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F34" s="26" t="s">
         <v>81</v>
@@ -3799,16 +3799,16 @@
         <v>3</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E35" s="26" t="s">
         <v>33</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -3819,16 +3819,16 @@
         <v>4</v>
       </c>
       <c r="C36" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="F36" s="26" t="s">
         <v>94</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3850,33 +3850,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="177" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="178" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="177" t="s">
+      <c r="D1" s="178" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="178" t="s">
+      <c r="E1" s="178" t="s">
         <v>196</v>
-      </c>
-      <c r="D1" s="178" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" s="178" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="172" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B2" s="97" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C2" s="91" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D2" s="98" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E2" s="179" t="s">
         <v>10</v>
@@ -3884,16 +3884,16 @@
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="172" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B3" s="170" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D3" s="171" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E3" s="179" t="s">
         <v>10</v>
@@ -3901,19 +3901,19 @@
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="182" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B4" s="170" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C4" s="82" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D4" s="179" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="82" t="s">
         <v>233</v>
-      </c>
-      <c r="E4" s="82" t="s">
-        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3932,16 +3932,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1" s="92" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C1" s="76"/>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="87" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="110" t="s">
         <v>10</v>
@@ -3958,21 +3958,21 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="88" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B4" s="96" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="96" t="s">
         <v>220</v>
-      </c>
-      <c r="C4" s="96" t="s">
-        <v>221</v>
-      </c>
-      <c r="D4" s="96" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B5" s="110" t="s">
         <v>10</v>
@@ -4007,33 +4007,33 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="92" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C1" s="93" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D1" s="96" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E1" s="93" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F1" s="93" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D2" s="74" t="s">
         <v>10</v>
@@ -4047,13 +4047,13 @@
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D3" s="74" t="s">
         <v>10</v>
@@ -4067,13 +4067,13 @@
     </row>
     <row r="4" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D4" s="74" t="s">
         <v>10</v>
@@ -4087,13 +4087,13 @@
     </row>
     <row r="5" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="87" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D5" s="74" t="s">
         <v>10</v>
@@ -4114,36 +4114,36 @@
     </row>
     <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="95" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" s="93" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D7" s="96" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E7" s="93" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="93" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G7" s="93" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="87" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B8" s="97" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C8" s="98" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D8" s="74" t="s">
         <v>10</v>
@@ -4180,7 +4180,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="99" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C1" s="141"/>
       <c r="D1" s="142"/>
@@ -4207,52 +4207,52 @@
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B4" s="145" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C4" s="111"/>
     </row>
     <row r="5" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="113" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C5" s="111"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="146" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B6" s="145" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C6" s="111"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B7" s="113" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C7" s="111"/>
     </row>
     <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="146" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B8" s="145" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C8" s="111"/>
     </row>
     <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B9" s="101" t="s">
         <v>10</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="103" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B12" s="124" t="s">
         <v>18</v>
@@ -4291,27 +4291,27 @@
         <v>19</v>
       </c>
       <c r="D12" s="135" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F12" s="127" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G12" s="126" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="128" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B13" s="125" t="s">
         <v>21</v>
@@ -4320,13 +4320,13 @@
         <v>22</v>
       </c>
       <c r="D13" s="160" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E13" s="101">
         <v>1</v>
       </c>
       <c r="F13" s="130" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G13" s="129">
         <v>1</v>
@@ -4340,27 +4340,27 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D14" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="38" t="s">
         <v>142</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="100" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B15" s="101" t="s">
         <v>10</v>
@@ -4417,10 +4417,10 @@
         <v>30</v>
       </c>
       <c r="G18" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H18" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -4451,7 +4451,7 @@
     </row>
     <row r="20" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="117" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B20" s="124" t="s">
         <v>35</v>
@@ -4460,10 +4460,10 @@
         <v>36</v>
       </c>
       <c r="D20" s="134" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E20" s="135" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F20" s="126" t="s">
         <v>37</v>
@@ -4478,18 +4478,18 @@
         <v>40</v>
       </c>
       <c r="J20" s="115" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K20" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L20" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="118" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B21" s="125" t="s">
         <v>10</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="66" t="s">
         <v>35</v>
@@ -4539,17 +4539,17 @@
         <v>37</v>
       </c>
       <c r="E22" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F22" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G22" s="40"/>
       <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B23" s="112" t="s">
         <v>10</v>
@@ -4589,7 +4589,7 @@
         <v>44</v>
       </c>
       <c r="G24" s="137" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -4612,7 +4612,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="101" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -4635,7 +4635,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="101" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -4717,7 +4717,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="161" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B32" s="162" t="s">
         <v>2</v>
@@ -4741,7 +4741,7 @@
     </row>
     <row r="33" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="166" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B33" s="167" t="s">
         <v>10</v>
@@ -4765,34 +4765,34 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="184" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" s="119" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="184" t="s">
-        <v>218</v>
-      </c>
-      <c r="C34" s="119" t="s">
+      <c r="E34" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="D34" s="119" t="s">
+      <c r="F34" s="184" t="s">
+        <v>214</v>
+      </c>
+      <c r="G34" s="184" t="s">
+        <v>215</v>
+      </c>
+      <c r="H34" s="119" t="s">
         <v>151</v>
       </c>
-      <c r="E34" s="119" t="s">
+      <c r="I34" s="119" t="s">
         <v>152</v>
       </c>
-      <c r="F34" s="184" t="s">
-        <v>216</v>
-      </c>
-      <c r="G34" s="184" t="s">
-        <v>217</v>
-      </c>
-      <c r="H34" s="119" t="s">
+      <c r="J34" s="119" t="s">
         <v>153</v>
-      </c>
-      <c r="I34" s="119" t="s">
-        <v>154</v>
-      </c>
-      <c r="J34" s="119" t="s">
-        <v>155</v>
       </c>
       <c r="K34" s="119" t="s">
         <v>48</v>
@@ -4801,33 +4801,33 @@
         <v>49</v>
       </c>
       <c r="M34" s="119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N34" s="119" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O34" s="119" t="s">
         <v>34</v>
       </c>
       <c r="P34" s="119" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q34" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="R34" s="119" t="s">
         <v>156</v>
       </c>
-      <c r="Q34" s="119" t="s">
-        <v>157</v>
-      </c>
-      <c r="R34" s="119" t="s">
-        <v>158</v>
-      </c>
       <c r="S34" s="119" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T34" s="120" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="121" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B35" s="185" t="s">
         <v>10</v>
@@ -4972,10 +4972,10 @@
         <v>30</v>
       </c>
       <c r="G42" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H42" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="30" x14ac:dyDescent="0.25">
@@ -5006,7 +5006,7 @@
     </row>
     <row r="44" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A44" s="117" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>35</v>
@@ -5015,10 +5015,10 @@
         <v>36</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E44" s="135" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>37</v>
@@ -5033,18 +5033,18 @@
         <v>40</v>
       </c>
       <c r="J44" s="115" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K44" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L44" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="118" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>59</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B46" s="66" t="s">
         <v>35</v>
@@ -5094,17 +5094,17 @@
         <v>37</v>
       </c>
       <c r="E46" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F46" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G46" s="40"/>
       <c r="H46" s="16"/>
     </row>
     <row r="47" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B47" s="112" t="s">
         <v>10</v>
@@ -5144,7 +5144,7 @@
         <v>44</v>
       </c>
       <c r="G48" s="137" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -5167,7 +5167,7 @@
         <v>2</v>
       </c>
       <c r="G49" s="101" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -5190,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="101" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -5271,7 +5271,7 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="161" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B56" s="162" t="s">
         <v>2</v>
@@ -5295,7 +5295,7 @@
     </row>
     <row r="57" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="166" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B57" s="167" t="s">
         <v>10</v>
@@ -5319,34 +5319,34 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" s="184" t="s">
+        <v>216</v>
+      </c>
+      <c r="C58" s="119" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="B58" s="184" t="s">
-        <v>218</v>
-      </c>
-      <c r="C58" s="119" t="s">
+      <c r="E58" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="D58" s="119" t="s">
+      <c r="F58" s="184" t="s">
+        <v>214</v>
+      </c>
+      <c r="G58" s="184" t="s">
+        <v>215</v>
+      </c>
+      <c r="H58" s="119" t="s">
         <v>151</v>
       </c>
-      <c r="E58" s="119" t="s">
+      <c r="I58" s="119" t="s">
         <v>152</v>
       </c>
-      <c r="F58" s="184" t="s">
-        <v>216</v>
-      </c>
-      <c r="G58" s="184" t="s">
-        <v>217</v>
-      </c>
-      <c r="H58" s="119" t="s">
+      <c r="J58" s="119" t="s">
         <v>153</v>
-      </c>
-      <c r="I58" s="119" t="s">
-        <v>154</v>
-      </c>
-      <c r="J58" s="119" t="s">
-        <v>155</v>
       </c>
       <c r="K58" s="119" t="s">
         <v>48</v>
@@ -5355,33 +5355,33 @@
         <v>49</v>
       </c>
       <c r="M58" s="119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N58" s="119" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O58" s="119" t="s">
         <v>34</v>
       </c>
       <c r="P58" s="119" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q58" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="R58" s="119" t="s">
         <v>156</v>
       </c>
-      <c r="Q58" s="119" t="s">
-        <v>157</v>
-      </c>
-      <c r="R58" s="119" t="s">
-        <v>158</v>
-      </c>
       <c r="S58" s="119" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T58" s="120" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="121" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B59" s="185" t="s">
         <v>10</v>
@@ -5526,10 +5526,10 @@
         <v>30</v>
       </c>
       <c r="G66" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H66" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -5560,7 +5560,7 @@
     </row>
     <row r="68" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A68" s="117" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B68" s="18" t="s">
         <v>35</v>
@@ -5569,10 +5569,10 @@
         <v>36</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E68" s="135" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>37</v>
@@ -5587,18 +5587,18 @@
         <v>40</v>
       </c>
       <c r="J68" s="115" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K68" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L68" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="118" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B69" s="19" t="s">
         <v>59</v>
@@ -5636,7 +5636,7 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B70" s="66" t="s">
         <v>35</v>
@@ -5648,17 +5648,17 @@
         <v>37</v>
       </c>
       <c r="E70" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F70" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G70" s="40"/>
       <c r="H70" s="16"/>
     </row>
     <row r="71" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B71" s="112" t="s">
         <v>10</v>
@@ -5698,7 +5698,7 @@
         <v>44</v>
       </c>
       <c r="G72" s="137" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -5721,7 +5721,7 @@
         <v>2</v>
       </c>
       <c r="G73" s="101" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -5744,7 +5744,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="101" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -5825,7 +5825,7 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="161" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B80" s="162" t="s">
         <v>2</v>
@@ -5849,7 +5849,7 @@
     </row>
     <row r="81" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="166" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B81" s="167" t="s">
         <v>10</v>
@@ -5873,34 +5873,34 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82" s="184" t="s">
+        <v>216</v>
+      </c>
+      <c r="C82" s="119" t="s">
+        <v>148</v>
+      </c>
+      <c r="D82" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="B82" s="184" t="s">
-        <v>218</v>
-      </c>
-      <c r="C82" s="119" t="s">
+      <c r="E82" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="D82" s="119" t="s">
+      <c r="F82" s="184" t="s">
+        <v>214</v>
+      </c>
+      <c r="G82" s="184" t="s">
+        <v>215</v>
+      </c>
+      <c r="H82" s="119" t="s">
         <v>151</v>
       </c>
-      <c r="E82" s="119" t="s">
+      <c r="I82" s="119" t="s">
         <v>152</v>
       </c>
-      <c r="F82" s="184" t="s">
-        <v>216</v>
-      </c>
-      <c r="G82" s="184" t="s">
-        <v>217</v>
-      </c>
-      <c r="H82" s="119" t="s">
+      <c r="J82" s="119" t="s">
         <v>153</v>
-      </c>
-      <c r="I82" s="119" t="s">
-        <v>154</v>
-      </c>
-      <c r="J82" s="119" t="s">
-        <v>155</v>
       </c>
       <c r="K82" s="119" t="s">
         <v>48</v>
@@ -5909,33 +5909,33 @@
         <v>49</v>
       </c>
       <c r="M82" s="119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N82" s="119" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O82" s="119" t="s">
         <v>34</v>
       </c>
       <c r="P82" s="119" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q82" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="R82" s="119" t="s">
         <v>156</v>
       </c>
-      <c r="Q82" s="119" t="s">
-        <v>157</v>
-      </c>
-      <c r="R82" s="119" t="s">
-        <v>158</v>
-      </c>
       <c r="S82" s="119" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T82" s="120" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="121" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B83" s="185" t="s">
         <v>10</v>
@@ -6069,7 +6069,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="99" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C1" s="141"/>
       <c r="D1" s="142"/>
@@ -6096,61 +6096,61 @@
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B4" s="145" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C4" s="111"/>
     </row>
     <row r="5" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="113" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C5" s="111"/>
     </row>
     <row r="6" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="51" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B6" s="169" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C6" s="111"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="146" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B7" s="145" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C7" s="111"/>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B8" s="113" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C8" s="111"/>
     </row>
     <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="146" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B9" s="145" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C9" s="111"/>
     </row>
     <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B10" s="101" t="s">
         <v>10</v>
@@ -6180,7 +6180,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="103" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B13" s="124" t="s">
         <v>18</v>
@@ -6189,27 +6189,27 @@
         <v>19</v>
       </c>
       <c r="D13" s="135" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F13" s="127" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G13" s="126" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="128" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B14" s="144" t="s">
         <v>22</v>
@@ -6218,13 +6218,13 @@
         <v>22</v>
       </c>
       <c r="D14" s="160" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E14" s="101">
         <v>1</v>
       </c>
       <c r="F14" s="130" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G14" s="129">
         <v>3</v>
@@ -6238,27 +6238,27 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D15" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="38" t="s">
         <v>142</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="100" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B16" s="101" t="s">
         <v>10</v>
@@ -6315,10 +6315,10 @@
         <v>30</v>
       </c>
       <c r="G19" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H19" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -6349,7 +6349,7 @@
     </row>
     <row r="21" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="117" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B21" s="124" t="s">
         <v>35</v>
@@ -6358,10 +6358,10 @@
         <v>36</v>
       </c>
       <c r="D21" s="134" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E21" s="135" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F21" s="126" t="s">
         <v>37</v>
@@ -6376,18 +6376,18 @@
         <v>40</v>
       </c>
       <c r="J21" s="115" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K21" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L21" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="118" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B22" s="125" t="s">
         <v>10</v>
@@ -6425,7 +6425,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B23" s="66" t="s">
         <v>35</v>
@@ -6437,17 +6437,17 @@
         <v>37</v>
       </c>
       <c r="E23" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F23" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G23" s="40"/>
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B24" s="112" t="s">
         <v>10</v>
@@ -6487,7 +6487,7 @@
         <v>44</v>
       </c>
       <c r="G25" s="137" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -6510,7 +6510,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="101" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -6533,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="101" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -6614,7 +6614,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="161" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B33" s="162" t="s">
         <v>2</v>
@@ -6638,7 +6638,7 @@
     </row>
     <row r="34" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="166" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B34" s="167" t="s">
         <v>10</v>
@@ -6662,34 +6662,34 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="184" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" s="119" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="B35" s="184" t="s">
-        <v>218</v>
-      </c>
-      <c r="C35" s="119" t="s">
+      <c r="E35" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="D35" s="119" t="s">
+      <c r="F35" s="184" t="s">
+        <v>214</v>
+      </c>
+      <c r="G35" s="184" t="s">
+        <v>215</v>
+      </c>
+      <c r="H35" s="119" t="s">
         <v>151</v>
       </c>
-      <c r="E35" s="119" t="s">
+      <c r="I35" s="119" t="s">
         <v>152</v>
       </c>
-      <c r="F35" s="184" t="s">
-        <v>216</v>
-      </c>
-      <c r="G35" s="184" t="s">
-        <v>217</v>
-      </c>
-      <c r="H35" s="119" t="s">
+      <c r="J35" s="119" t="s">
         <v>153</v>
-      </c>
-      <c r="I35" s="119" t="s">
-        <v>154</v>
-      </c>
-      <c r="J35" s="119" t="s">
-        <v>155</v>
       </c>
       <c r="K35" s="119" t="s">
         <v>48</v>
@@ -6698,33 +6698,33 @@
         <v>49</v>
       </c>
       <c r="M35" s="119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N35" s="119" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O35" s="119" t="s">
         <v>34</v>
       </c>
       <c r="P35" s="119" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q35" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="R35" s="119" t="s">
         <v>156</v>
       </c>
-      <c r="Q35" s="119" t="s">
-        <v>157</v>
-      </c>
-      <c r="R35" s="119" t="s">
-        <v>158</v>
-      </c>
       <c r="S35" s="119" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T35" s="120" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="121" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B36" s="185" t="s">
         <v>10</v>
@@ -6869,10 +6869,10 @@
         <v>30</v>
       </c>
       <c r="G43" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H43" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="30" x14ac:dyDescent="0.25">
@@ -6903,7 +6903,7 @@
     </row>
     <row r="45" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A45" s="117" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B45" s="18" t="s">
         <v>35</v>
@@ -6912,10 +6912,10 @@
         <v>36</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E45" s="135" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>37</v>
@@ -6930,18 +6930,18 @@
         <v>40</v>
       </c>
       <c r="J45" s="115" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K45" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L45" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="118" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>59</v>
@@ -6979,7 +6979,7 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B47" s="66" t="s">
         <v>35</v>
@@ -6991,17 +6991,17 @@
         <v>37</v>
       </c>
       <c r="E47" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F47" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G47" s="40"/>
       <c r="H47" s="16"/>
     </row>
     <row r="48" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B48" s="112" t="s">
         <v>10</v>
@@ -7041,7 +7041,7 @@
         <v>44</v>
       </c>
       <c r="G49" s="137" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -7064,7 +7064,7 @@
         <v>2</v>
       </c>
       <c r="G50" s="101" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="101" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -7168,7 +7168,7 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="161" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B57" s="162" t="s">
         <v>2</v>
@@ -7192,7 +7192,7 @@
     </row>
     <row r="58" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="166" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B58" s="167" t="s">
         <v>10</v>
@@ -7216,34 +7216,34 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" s="184" t="s">
+        <v>216</v>
+      </c>
+      <c r="C59" s="119" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="B59" s="184" t="s">
-        <v>218</v>
-      </c>
-      <c r="C59" s="119" t="s">
+      <c r="E59" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="D59" s="119" t="s">
+      <c r="F59" s="184" t="s">
+        <v>214</v>
+      </c>
+      <c r="G59" s="184" t="s">
+        <v>215</v>
+      </c>
+      <c r="H59" s="119" t="s">
         <v>151</v>
       </c>
-      <c r="E59" s="119" t="s">
+      <c r="I59" s="119" t="s">
         <v>152</v>
       </c>
-      <c r="F59" s="184" t="s">
-        <v>216</v>
-      </c>
-      <c r="G59" s="184" t="s">
-        <v>217</v>
-      </c>
-      <c r="H59" s="119" t="s">
+      <c r="J59" s="119" t="s">
         <v>153</v>
-      </c>
-      <c r="I59" s="119" t="s">
-        <v>154</v>
-      </c>
-      <c r="J59" s="119" t="s">
-        <v>155</v>
       </c>
       <c r="K59" s="119" t="s">
         <v>48</v>
@@ -7252,33 +7252,33 @@
         <v>49</v>
       </c>
       <c r="M59" s="119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N59" s="119" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O59" s="119" t="s">
         <v>34</v>
       </c>
       <c r="P59" s="119" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q59" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="R59" s="119" t="s">
         <v>156</v>
       </c>
-      <c r="Q59" s="119" t="s">
-        <v>157</v>
-      </c>
-      <c r="R59" s="119" t="s">
-        <v>158</v>
-      </c>
       <c r="S59" s="119" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T59" s="120" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="121" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B60" s="185" t="s">
         <v>10</v>
@@ -7423,10 +7423,10 @@
         <v>30</v>
       </c>
       <c r="G67" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H67" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7457,7 +7457,7 @@
     </row>
     <row r="69" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A69" s="117" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B69" s="18" t="s">
         <v>35</v>
@@ -7466,10 +7466,10 @@
         <v>36</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E69" s="135" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>37</v>
@@ -7484,18 +7484,18 @@
         <v>40</v>
       </c>
       <c r="J69" s="115" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K69" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L69" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="118" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B70" s="19" t="s">
         <v>59</v>
@@ -7533,7 +7533,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B71" s="66" t="s">
         <v>35</v>
@@ -7545,17 +7545,17 @@
         <v>37</v>
       </c>
       <c r="E71" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F71" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G71" s="40"/>
       <c r="H71" s="16"/>
     </row>
     <row r="72" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B72" s="112" t="s">
         <v>10</v>
@@ -7595,7 +7595,7 @@
         <v>44</v>
       </c>
       <c r="G73" s="137" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -7618,7 +7618,7 @@
         <v>2</v>
       </c>
       <c r="G74" s="101" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -7641,7 +7641,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="101" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -7722,7 +7722,7 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="161" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B81" s="162" t="s">
         <v>2</v>
@@ -7746,7 +7746,7 @@
     </row>
     <row r="82" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="166" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B82" s="167" t="s">
         <v>10</v>
@@ -7770,34 +7770,34 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="B83" s="184" t="s">
+        <v>216</v>
+      </c>
+      <c r="C83" s="119" t="s">
+        <v>148</v>
+      </c>
+      <c r="D83" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="B83" s="184" t="s">
-        <v>218</v>
-      </c>
-      <c r="C83" s="119" t="s">
+      <c r="E83" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="D83" s="119" t="s">
+      <c r="F83" s="184" t="s">
+        <v>214</v>
+      </c>
+      <c r="G83" s="184" t="s">
+        <v>215</v>
+      </c>
+      <c r="H83" s="119" t="s">
         <v>151</v>
       </c>
-      <c r="E83" s="119" t="s">
+      <c r="I83" s="119" t="s">
         <v>152</v>
       </c>
-      <c r="F83" s="184" t="s">
-        <v>216</v>
-      </c>
-      <c r="G83" s="184" t="s">
-        <v>217</v>
-      </c>
-      <c r="H83" s="119" t="s">
+      <c r="J83" s="119" t="s">
         <v>153</v>
-      </c>
-      <c r="I83" s="119" t="s">
-        <v>154</v>
-      </c>
-      <c r="J83" s="119" t="s">
-        <v>155</v>
       </c>
       <c r="K83" s="119" t="s">
         <v>48</v>
@@ -7806,33 +7806,33 @@
         <v>49</v>
       </c>
       <c r="M83" s="119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N83" s="119" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O83" s="119" t="s">
         <v>34</v>
       </c>
       <c r="P83" s="119" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q83" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="R83" s="119" t="s">
         <v>156</v>
       </c>
-      <c r="Q83" s="119" t="s">
-        <v>157</v>
-      </c>
-      <c r="R83" s="119" t="s">
-        <v>158</v>
-      </c>
       <c r="S83" s="119" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T83" s="120" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="121" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B84" s="185" t="s">
         <v>10</v>
@@ -7966,7 +7966,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="99" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C1" s="141"/>
       <c r="D1" s="142"/>
@@ -7993,52 +7993,52 @@
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B4" s="145" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C4" s="111"/>
     </row>
     <row r="5" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="113" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C5" s="111"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="146" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B6" s="145" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C6" s="111"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B7" s="113" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C7" s="111"/>
     </row>
     <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="146" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B8" s="145" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C8" s="111"/>
     </row>
     <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B9" s="101" t="s">
         <v>10</v>
@@ -8068,7 +8068,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="103" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B12" s="124" t="s">
         <v>18</v>
@@ -8077,27 +8077,27 @@
         <v>19</v>
       </c>
       <c r="D12" s="135" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F12" s="127" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G12" s="126" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="128" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B13" s="144" t="s">
         <v>22</v>
@@ -8106,13 +8106,13 @@
         <v>21</v>
       </c>
       <c r="D13" s="160" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E13" s="101">
         <v>1</v>
       </c>
       <c r="F13" s="130" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G13" s="129">
         <v>2</v>
@@ -8126,27 +8126,27 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D14" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="38" t="s">
         <v>142</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="100" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B15" s="101" t="s">
         <v>10</v>
@@ -8203,10 +8203,10 @@
         <v>30</v>
       </c>
       <c r="G18" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H18" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -8237,7 +8237,7 @@
     </row>
     <row r="20" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="117" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B20" s="124" t="s">
         <v>35</v>
@@ -8246,10 +8246,10 @@
         <v>36</v>
       </c>
       <c r="D20" s="134" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E20" s="135" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F20" s="126" t="s">
         <v>37</v>
@@ -8264,18 +8264,18 @@
         <v>40</v>
       </c>
       <c r="J20" s="115" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K20" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L20" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="118" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B21" s="125" t="s">
         <v>10</v>
@@ -8313,7 +8313,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="66" t="s">
         <v>35</v>
@@ -8325,17 +8325,17 @@
         <v>37</v>
       </c>
       <c r="E22" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F22" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G22" s="40"/>
       <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B23" s="112" t="s">
         <v>10</v>
@@ -8375,7 +8375,7 @@
         <v>44</v>
       </c>
       <c r="G24" s="137" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -8434,7 +8434,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="161" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B28" s="162" t="s">
         <v>2</v>
@@ -8458,7 +8458,7 @@
     </row>
     <row r="29" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="166" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B29" s="167" t="s">
         <v>10</v>
@@ -8482,34 +8482,34 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="184" t="s">
+        <v>216</v>
+      </c>
+      <c r="C30" s="119" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="184" t="s">
-        <v>218</v>
-      </c>
-      <c r="C30" s="119" t="s">
+      <c r="E30" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="D30" s="119" t="s">
+      <c r="F30" s="184" t="s">
+        <v>214</v>
+      </c>
+      <c r="G30" s="184" t="s">
+        <v>215</v>
+      </c>
+      <c r="H30" s="119" t="s">
         <v>151</v>
       </c>
-      <c r="E30" s="119" t="s">
+      <c r="I30" s="119" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="184" t="s">
-        <v>216</v>
-      </c>
-      <c r="G30" s="184" t="s">
-        <v>217</v>
-      </c>
-      <c r="H30" s="119" t="s">
+      <c r="J30" s="119" t="s">
         <v>153</v>
-      </c>
-      <c r="I30" s="119" t="s">
-        <v>154</v>
-      </c>
-      <c r="J30" s="119" t="s">
-        <v>155</v>
       </c>
       <c r="K30" s="119" t="s">
         <v>48</v>
@@ -8518,33 +8518,33 @@
         <v>49</v>
       </c>
       <c r="M30" s="119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N30" s="119" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O30" s="119" t="s">
         <v>34</v>
       </c>
       <c r="P30" s="119" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q30" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="R30" s="119" t="s">
         <v>156</v>
       </c>
-      <c r="Q30" s="119" t="s">
-        <v>157</v>
-      </c>
-      <c r="R30" s="119" t="s">
-        <v>158</v>
-      </c>
       <c r="S30" s="119" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T30" s="120" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="121" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B31" s="185" t="s">
         <v>10</v>
@@ -8689,10 +8689,10 @@
         <v>30</v>
       </c>
       <c r="G38" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H38" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -8723,7 +8723,7 @@
     </row>
     <row r="40" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A40" s="117" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B40" s="18" t="s">
         <v>35</v>
@@ -8732,10 +8732,10 @@
         <v>36</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E40" s="135" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>37</v>
@@ -8750,18 +8750,18 @@
         <v>40</v>
       </c>
       <c r="J40" s="115" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K40" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L40" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="118" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>59</v>
@@ -8799,7 +8799,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B42" s="66" t="s">
         <v>35</v>
@@ -8811,17 +8811,17 @@
         <v>37</v>
       </c>
       <c r="E42" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F42" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G42" s="40"/>
       <c r="H42" s="16"/>
     </row>
     <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B43" s="112" t="s">
         <v>10</v>
@@ -8861,7 +8861,7 @@
         <v>44</v>
       </c>
       <c r="G44" s="137" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -8920,7 +8920,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="161" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B48" s="162" t="s">
         <v>2</v>
@@ -8944,7 +8944,7 @@
     </row>
     <row r="49" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="166" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B49" s="167" t="s">
         <v>10</v>
@@ -8968,34 +8968,34 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="184" t="s">
+        <v>216</v>
+      </c>
+      <c r="C50" s="119" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="184" t="s">
-        <v>218</v>
-      </c>
-      <c r="C50" s="119" t="s">
+      <c r="E50" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="D50" s="119" t="s">
+      <c r="F50" s="184" t="s">
+        <v>214</v>
+      </c>
+      <c r="G50" s="184" t="s">
+        <v>215</v>
+      </c>
+      <c r="H50" s="119" t="s">
         <v>151</v>
       </c>
-      <c r="E50" s="119" t="s">
+      <c r="I50" s="119" t="s">
         <v>152</v>
       </c>
-      <c r="F50" s="184" t="s">
-        <v>216</v>
-      </c>
-      <c r="G50" s="184" t="s">
-        <v>217</v>
-      </c>
-      <c r="H50" s="119" t="s">
+      <c r="J50" s="119" t="s">
         <v>153</v>
-      </c>
-      <c r="I50" s="119" t="s">
-        <v>154</v>
-      </c>
-      <c r="J50" s="119" t="s">
-        <v>155</v>
       </c>
       <c r="K50" s="119" t="s">
         <v>48</v>
@@ -9004,33 +9004,33 @@
         <v>49</v>
       </c>
       <c r="M50" s="119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N50" s="119" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O50" s="119" t="s">
         <v>34</v>
       </c>
       <c r="P50" s="119" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q50" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="R50" s="119" t="s">
         <v>156</v>
       </c>
-      <c r="Q50" s="119" t="s">
-        <v>157</v>
-      </c>
-      <c r="R50" s="119" t="s">
-        <v>158</v>
-      </c>
       <c r="S50" s="119" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T50" s="120" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="121" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B51" s="185" t="s">
         <v>10</v>
@@ -9164,7 +9164,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="99" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C1" s="141"/>
       <c r="D1" s="142"/>
@@ -9191,61 +9191,61 @@
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B4" s="145" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C4" s="111"/>
     </row>
     <row r="5" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="113" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C5" s="111"/>
     </row>
     <row r="6" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="51" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B6" s="169" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C6" s="111"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="146" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B7" s="145" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C7" s="111"/>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B8" s="113" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C8" s="111"/>
     </row>
     <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="146" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B9" s="145" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C9" s="111"/>
     </row>
     <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B10" s="101" t="s">
         <v>10</v>
@@ -9275,7 +9275,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="103" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B13" s="124" t="s">
         <v>18</v>
@@ -9284,27 +9284,27 @@
         <v>19</v>
       </c>
       <c r="D13" s="135" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F13" s="127" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G13" s="126" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="128" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B14" s="144" t="s">
         <v>22</v>
@@ -9313,13 +9313,13 @@
         <v>21</v>
       </c>
       <c r="D14" s="160" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E14" s="101">
         <v>1</v>
       </c>
       <c r="F14" s="130" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G14" s="129">
         <v>4</v>
@@ -9333,27 +9333,27 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D15" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="38" t="s">
         <v>142</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="100" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B16" s="101" t="s">
         <v>10</v>
@@ -9410,10 +9410,10 @@
         <v>30</v>
       </c>
       <c r="G19" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H19" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -9444,7 +9444,7 @@
     </row>
     <row r="21" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="117" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B21" s="124" t="s">
         <v>35</v>
@@ -9453,10 +9453,10 @@
         <v>36</v>
       </c>
       <c r="D21" s="134" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E21" s="135" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F21" s="126" t="s">
         <v>37</v>
@@ -9471,18 +9471,18 @@
         <v>40</v>
       </c>
       <c r="J21" s="115" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K21" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L21" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="118" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B22" s="125" t="s">
         <v>10</v>
@@ -9520,7 +9520,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B23" s="66" t="s">
         <v>35</v>
@@ -9532,17 +9532,17 @@
         <v>37</v>
       </c>
       <c r="E23" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F23" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G23" s="40"/>
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B24" s="112" t="s">
         <v>10</v>
@@ -9582,7 +9582,7 @@
         <v>44</v>
       </c>
       <c r="G25" s="137" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -9641,7 +9641,7 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="161" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B29" s="162" t="s">
         <v>2</v>
@@ -9665,7 +9665,7 @@
     </row>
     <row r="30" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="166" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B30" s="167" t="s">
         <v>10</v>
@@ -9689,34 +9689,34 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="184" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" s="119" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="B31" s="184" t="s">
-        <v>218</v>
-      </c>
-      <c r="C31" s="119" t="s">
+      <c r="E31" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="119" t="s">
+      <c r="F31" s="184" t="s">
+        <v>214</v>
+      </c>
+      <c r="G31" s="184" t="s">
+        <v>215</v>
+      </c>
+      <c r="H31" s="119" t="s">
         <v>151</v>
       </c>
-      <c r="E31" s="119" t="s">
+      <c r="I31" s="119" t="s">
         <v>152</v>
       </c>
-      <c r="F31" s="184" t="s">
-        <v>216</v>
-      </c>
-      <c r="G31" s="184" t="s">
-        <v>217</v>
-      </c>
-      <c r="H31" s="119" t="s">
+      <c r="J31" s="119" t="s">
         <v>153</v>
-      </c>
-      <c r="I31" s="119" t="s">
-        <v>154</v>
-      </c>
-      <c r="J31" s="119" t="s">
-        <v>155</v>
       </c>
       <c r="K31" s="119" t="s">
         <v>48</v>
@@ -9725,33 +9725,33 @@
         <v>49</v>
       </c>
       <c r="M31" s="119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N31" s="119" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O31" s="119" t="s">
         <v>34</v>
       </c>
       <c r="P31" s="119" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q31" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="R31" s="119" t="s">
         <v>156</v>
       </c>
-      <c r="Q31" s="119" t="s">
-        <v>157</v>
-      </c>
-      <c r="R31" s="119" t="s">
-        <v>158</v>
-      </c>
       <c r="S31" s="119" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T31" s="120" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="121" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B32" s="185" t="s">
         <v>10</v>
@@ -9896,10 +9896,10 @@
         <v>30</v>
       </c>
       <c r="G39" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H39" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9930,7 +9930,7 @@
     </row>
     <row r="41" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A41" s="117" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B41" s="18" t="s">
         <v>35</v>
@@ -9939,10 +9939,10 @@
         <v>36</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E41" s="135" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>37</v>
@@ -9957,18 +9957,18 @@
         <v>40</v>
       </c>
       <c r="J41" s="115" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K41" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L41" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="118" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>59</v>
@@ -10006,7 +10006,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B43" s="66" t="s">
         <v>35</v>
@@ -10018,17 +10018,17 @@
         <v>37</v>
       </c>
       <c r="E43" s="184" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F43" s="184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G43" s="40"/>
       <c r="H43" s="16"/>
     </row>
     <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B44" s="112" t="s">
         <v>10</v>
@@ -10068,7 +10068,7 @@
         <v>44</v>
       </c>
       <c r="G45" s="137" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -10127,7 +10127,7 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="161" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B49" s="162" t="s">
         <v>2</v>
@@ -10151,7 +10151,7 @@
     </row>
     <row r="50" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="166" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B50" s="167" t="s">
         <v>10</v>
@@ -10175,34 +10175,34 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="184" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51" s="119" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="B51" s="184" t="s">
-        <v>218</v>
-      </c>
-      <c r="C51" s="119" t="s">
+      <c r="E51" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="D51" s="119" t="s">
+      <c r="F51" s="184" t="s">
+        <v>214</v>
+      </c>
+      <c r="G51" s="184" t="s">
+        <v>215</v>
+      </c>
+      <c r="H51" s="119" t="s">
         <v>151</v>
       </c>
-      <c r="E51" s="119" t="s">
+      <c r="I51" s="119" t="s">
         <v>152</v>
       </c>
-      <c r="F51" s="184" t="s">
-        <v>216</v>
-      </c>
-      <c r="G51" s="184" t="s">
-        <v>217</v>
-      </c>
-      <c r="H51" s="119" t="s">
+      <c r="J51" s="119" t="s">
         <v>153</v>
-      </c>
-      <c r="I51" s="119" t="s">
-        <v>154</v>
-      </c>
-      <c r="J51" s="119" t="s">
-        <v>155</v>
       </c>
       <c r="K51" s="119" t="s">
         <v>48</v>
@@ -10211,33 +10211,33 @@
         <v>49</v>
       </c>
       <c r="M51" s="119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N51" s="119" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O51" s="119" t="s">
         <v>34</v>
       </c>
       <c r="P51" s="119" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q51" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="R51" s="119" t="s">
         <v>156</v>
       </c>
-      <c r="Q51" s="119" t="s">
-        <v>157</v>
-      </c>
-      <c r="R51" s="119" t="s">
-        <v>158</v>
-      </c>
       <c r="S51" s="119" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T51" s="120" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="121" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B52" s="185" t="s">
         <v>10</v>
